--- a/tut05/output/0501CS06.xlsx
+++ b/tut05/output/0501CS06.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.489795918367347</v>
+        <v>8.49</v>
       </c>
       <c r="C6" t="n">
-        <v>8.522727272727273</v>
+        <v>8.52</v>
       </c>
       <c r="D6" t="n">
-        <v>8.744186046511627</v>
+        <v>8.74</v>
       </c>
       <c r="E6" t="n">
-        <v>8.340425531914894</v>
+        <v>8.34</v>
       </c>
       <c r="F6" t="n">
-        <v>9.523809523809524</v>
+        <v>9.52</v>
       </c>
       <c r="G6" t="n">
         <v>9.35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.658536585365853</v>
+        <v>9.66</v>
       </c>
       <c r="I6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.489795918367347</v>
+        <v>8.49</v>
       </c>
       <c r="C8" t="n">
-        <v>8.505376344086022</v>
+        <v>8.51</v>
       </c>
       <c r="D8" t="n">
-        <v>8.580882352941176</v>
+        <v>8.58</v>
       </c>
       <c r="E8" t="n">
-        <v>8.519125683060109</v>
+        <v>8.52</v>
       </c>
       <c r="F8" t="n">
-        <v>8.706666666666667</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.80377358490566</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.918300653594772</v>
+        <v>8.92</v>
       </c>
       <c r="I8" t="n">
-        <v>9.026011560693641</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
   </sheetData>
